--- a/biology/Zoologie/Akodon_juninensis/Akodon_juninensis.xlsx
+++ b/biology/Zoologie/Akodon_juninensis/Akodon_juninensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Akodon juninensis est une espèce de rongeurs de la famille des Cricetidae endémique du Pérou.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Akodon juninensis a été décrite en 1990 par Philip Myers (d), James L. Patton (d) et Margaret F. Smith (d)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Akodon juninensis a été décrite en 1990 par Philip Myers (d), James L. Patton (d) et Margaret F. Smith (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Andes au Pérou. Elle vit dans la puna (prairies de haute altitude)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Andes au Pérou. Elle vit dans la puna (prairies de haute altitude).
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, composée de junin et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le département de Junín au Pérou[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, composée de junin et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le département de Junín au Pérou. 
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Philip Myers, James L. Patton et Margaret F. Smith, « A Review of the Boliviensis Group of Akodon (Muridae: Sigmodontinae), with Emphasis on Peru and Bolivia », Miscellaneous publications. Museum of Zoology, University of Michigan, Ann Arbor, Inconnu, vol. 177,‎ 29 mars 1990, p. 1-104 (ISSN 0076-8405, OCLC 1607508, lire en ligne)</t>
         </is>
